--- a/kappa_02.03.10.xlsx
+++ b/kappa_02.03.10.xlsx
@@ -407,16 +407,16 @@
         <v>0.8</v>
       </c>
       <c r="B2" t="n">
-        <v>26.51082823820543</v>
+        <v>26.51082824712502</v>
       </c>
       <c r="C2" t="n">
         <v>0.9029345372460498</v>
       </c>
       <c r="D2" t="n">
-        <v>1.158344765443806</v>
+        <v>1.158344764274628</v>
       </c>
       <c r="E2" t="n">
-        <v>-28.28668277290154</v>
+        <v>-28.28668264341507</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -424,16 +424,16 @@
         <v>0.8</v>
       </c>
       <c r="B3" t="n">
-        <v>26.25179538033215</v>
+        <v>26.25179537295159</v>
       </c>
       <c r="C3" t="n">
         <v>0.9029345372460498</v>
       </c>
       <c r="D3" t="n">
-        <v>1.192973225917908</v>
+        <v>1.192973226924102</v>
       </c>
       <c r="E3" t="n">
-        <v>-32.1217847704083</v>
+        <v>-32.12178488184428</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -441,16 +441,16 @@
         <v>0.8</v>
       </c>
       <c r="B4" t="n">
-        <v>24.70415797088759</v>
+        <v>24.7041579726421</v>
       </c>
       <c r="C4" t="n">
         <v>0.8008008008008007</v>
       </c>
       <c r="D4" t="n">
-        <v>1.431520464828448</v>
+        <v>1.431520464523444</v>
       </c>
       <c r="E4" t="n">
-        <v>-78.76111804545248</v>
+        <v>-78.7611180073651</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -458,16 +458,16 @@
         <v>0.6</v>
       </c>
       <c r="B5" t="n">
-        <v>31.3600762988903</v>
+        <v>31.36007630036842</v>
       </c>
       <c r="C5" t="n">
         <v>0.8823529411764705</v>
       </c>
       <c r="D5" t="n">
-        <v>1.241624619685711</v>
+        <v>1.241624619510144</v>
       </c>
       <c r="E5" t="n">
-        <v>-40.71745689771397</v>
+        <v>-40.7174568778163</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -475,16 +475,16 @@
         <v>0.6</v>
       </c>
       <c r="B6" t="n">
-        <v>31.34247808921399</v>
+        <v>31.34247808753499</v>
       </c>
       <c r="C6" t="n">
         <v>0.8823529411764705</v>
       </c>
       <c r="D6" t="n">
-        <v>1.243717240556424</v>
+        <v>1.2437172407563</v>
       </c>
       <c r="E6" t="n">
-        <v>-40.95462059639473</v>
+        <v>-40.95462061904733</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -492,16 +492,16 @@
         <v>0.6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.13608029602993</v>
+        <v>31.13608030495439</v>
       </c>
       <c r="C7" t="n">
         <v>0.8823529411764705</v>
       </c>
       <c r="D7" t="n">
-        <v>1.268614969349847</v>
+        <v>1.268614968258987</v>
       </c>
       <c r="E7" t="n">
-        <v>-43.77636319298268</v>
+        <v>-43.77636306935187</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -509,16 +509,16 @@
         <v>0.6</v>
       </c>
       <c r="B8" t="n">
-        <v>30.7219125037851</v>
+        <v>30.72191251549589</v>
       </c>
       <c r="C8" t="n">
         <v>0.8403361344537814</v>
       </c>
       <c r="D8" t="n">
-        <v>1.320617060858876</v>
+        <v>1.320617059348671</v>
       </c>
       <c r="E8" t="n">
-        <v>-57.15343024220621</v>
+        <v>-57.15343006249181</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -526,16 +526,16 @@
         <v>0.4</v>
       </c>
       <c r="B9" t="n">
-        <v>41.5828989263083</v>
+        <v>41.58289892370635</v>
       </c>
       <c r="C9" t="n">
         <v>0.894854586129754</v>
       </c>
       <c r="D9" t="n">
-        <v>1.19590007018109</v>
+        <v>1.195900070405581</v>
       </c>
       <c r="E9" t="n">
-        <v>-33.64183284273675</v>
+        <v>-33.64183286782365</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -543,16 +543,16 @@
         <v>0.4</v>
       </c>
       <c r="B10" t="n">
-        <v>40.91885268536568</v>
+        <v>40.91885268817764</v>
       </c>
       <c r="C10" t="n">
         <v>0.8620689655172414</v>
       </c>
       <c r="D10" t="n">
-        <v>1.255072560850965</v>
+        <v>1.255072560592218</v>
       </c>
       <c r="E10" t="n">
-        <v>-45.5884170587119</v>
+        <v>-45.58841702869727</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -560,16 +560,16 @@
         <v>0.4</v>
       </c>
       <c r="B11" t="n">
-        <v>38.75476600869639</v>
+        <v>38.75476601109698</v>
       </c>
       <c r="C11" t="n">
         <v>0.7984031936127745</v>
       </c>
       <c r="D11" t="n">
-        <v>1.477283414513764</v>
+        <v>1.477283414239243</v>
       </c>
       <c r="E11" t="n">
-        <v>-85.02974766784898</v>
+        <v>-85.02974763346522</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -577,16 +577,16 @@
         <v>0.4</v>
       </c>
       <c r="B12" t="n">
-        <v>37.77451959805142</v>
+        <v>37.77451959669179</v>
       </c>
       <c r="C12" t="n">
         <v>0.7677543186180422</v>
       </c>
       <c r="D12" t="n">
-        <v>1.595299869554966</v>
+        <v>1.595299869727226</v>
       </c>
       <c r="E12" t="n">
-        <v>-107.7878080095343</v>
+        <v>-107.7878080319711</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/kappa_02.03.10.xlsx
+++ b/kappa_02.03.10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Kappa" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Kappa" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45,7 +45,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,14 +80,15 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -377,13 +382,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -407,16 +412,16 @@
         <v>0.8</v>
       </c>
       <c r="B2" t="n">
-        <v>26.51082824712502</v>
+        <v>26.51082823738805</v>
       </c>
       <c r="C2" t="n">
         <v>0.9029345372460498</v>
       </c>
       <c r="D2" t="n">
-        <v>1.158344764274628</v>
+        <v>1.158344765550948</v>
       </c>
       <c r="E2" t="n">
-        <v>-28.28668264341507</v>
+        <v>-28.28668278476743</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -424,16 +429,16 @@
         <v>0.8</v>
       </c>
       <c r="B3" t="n">
-        <v>26.25179537295159</v>
+        <v>26.25179537440712</v>
       </c>
       <c r="C3" t="n">
         <v>0.9029345372460498</v>
       </c>
       <c r="D3" t="n">
-        <v>1.192973226924102</v>
+        <v>1.192973226725669</v>
       </c>
       <c r="E3" t="n">
-        <v>-32.12178488184428</v>
+        <v>-32.12178485986787</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -441,16 +446,16 @@
         <v>0.8</v>
       </c>
       <c r="B4" t="n">
-        <v>24.7041579726421</v>
+        <v>24.70415796825647</v>
       </c>
       <c r="C4" t="n">
         <v>0.8008008008008007</v>
       </c>
       <c r="D4" t="n">
-        <v>1.431520464523444</v>
+        <v>1.431520465285841</v>
       </c>
       <c r="E4" t="n">
-        <v>-78.7611180073651</v>
+        <v>-78.76111810256936</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -458,16 +463,16 @@
         <v>0.6</v>
       </c>
       <c r="B5" t="n">
-        <v>31.36007630036842</v>
+        <v>31.36007629726474</v>
       </c>
       <c r="C5" t="n">
         <v>0.8823529411764705</v>
       </c>
       <c r="D5" t="n">
-        <v>1.241624619510144</v>
+        <v>1.241624619878791</v>
       </c>
       <c r="E5" t="n">
-        <v>-40.7174568778163</v>
+        <v>-40.71745691959636</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -475,16 +480,16 @@
         <v>0.6</v>
       </c>
       <c r="B6" t="n">
-        <v>31.34247808753499</v>
+        <v>31.3424780884979</v>
       </c>
       <c r="C6" t="n">
         <v>0.8823529411764705</v>
       </c>
       <c r="D6" t="n">
-        <v>1.2437172407563</v>
+        <v>1.24371724064167</v>
       </c>
       <c r="E6" t="n">
-        <v>-40.95462061904733</v>
+        <v>-40.95462060605599</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -492,16 +497,16 @@
         <v>0.6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.13608030495439</v>
+        <v>31.13608367094817</v>
       </c>
       <c r="C7" t="n">
         <v>0.8823529411764705</v>
       </c>
       <c r="D7" t="n">
-        <v>1.268614968258987</v>
+        <v>1.268614556824812</v>
       </c>
       <c r="E7" t="n">
-        <v>-43.77636306935187</v>
+        <v>-43.77631644014537</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -509,16 +514,16 @@
         <v>0.6</v>
       </c>
       <c r="B8" t="n">
-        <v>30.72191251549589</v>
+        <v>30.72191251677934</v>
       </c>
       <c r="C8" t="n">
         <v>0.8403361344537814</v>
       </c>
       <c r="D8" t="n">
-        <v>1.320617059348671</v>
+        <v>1.320617059183158</v>
       </c>
       <c r="E8" t="n">
-        <v>-57.15343006249181</v>
+        <v>-57.1534300427958</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -526,16 +531,16 @@
         <v>0.4</v>
       </c>
       <c r="B9" t="n">
-        <v>41.58289892370635</v>
+        <v>41.58289892663655</v>
       </c>
       <c r="C9" t="n">
         <v>0.894854586129754</v>
       </c>
       <c r="D9" t="n">
-        <v>1.195900070405581</v>
+        <v>1.195900070152768</v>
       </c>
       <c r="E9" t="n">
-        <v>-33.64183286782365</v>
+        <v>-33.64183283957186</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -543,16 +548,16 @@
         <v>0.4</v>
       </c>
       <c r="B10" t="n">
-        <v>40.91885268817764</v>
+        <v>40.91885268944819</v>
       </c>
       <c r="C10" t="n">
         <v>0.8620689655172414</v>
       </c>
       <c r="D10" t="n">
-        <v>1.255072560592218</v>
+        <v>1.255072560475305</v>
       </c>
       <c r="E10" t="n">
-        <v>-45.58841702869727</v>
+        <v>-45.58841701513543</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -560,16 +565,16 @@
         <v>0.4</v>
       </c>
       <c r="B11" t="n">
-        <v>38.75476601109698</v>
+        <v>38.75477424744241</v>
       </c>
       <c r="C11" t="n">
         <v>0.7984031936127745</v>
       </c>
       <c r="D11" t="n">
-        <v>1.477283414239243</v>
+        <v>1.477282472361952</v>
       </c>
       <c r="E11" t="n">
-        <v>-85.02974763346522</v>
+        <v>-85.02962966333449</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -577,16 +582,16 @@
         <v>0.4</v>
       </c>
       <c r="B12" t="n">
-        <v>37.77451959669179</v>
+        <v>37.77451960087208</v>
       </c>
       <c r="C12" t="n">
         <v>0.7677543186180422</v>
       </c>
       <c r="D12" t="n">
-        <v>1.595299869727226</v>
+        <v>1.595299869197597</v>
       </c>
       <c r="E12" t="n">
-        <v>-107.7878080319711</v>
+        <v>-107.787807962987</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -594,16 +599,16 @@
         <v>0.2</v>
       </c>
       <c r="B13" t="n">
-        <v>66.82035016571871</v>
+        <v>66.82035016886446</v>
       </c>
       <c r="C13" t="n">
         <v>0.9174311926605505</v>
       </c>
       <c r="D13" t="n">
-        <v>1.150552672296541</v>
+        <v>1.150552672134044</v>
       </c>
       <c r="E13" t="n">
-        <v>-25.41024128032295</v>
+        <v>-25.41024126261081</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -611,33 +616,16 @@
         <v>0.2</v>
       </c>
       <c r="B14" t="n">
-        <v>66.32073257941096</v>
+        <v>64.53095902386819</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9174311926605505</v>
+        <v>0.8733624454148473</v>
       </c>
       <c r="D14" t="n">
-        <v>1.176751614019284</v>
+        <v>1.277404344315333</v>
       </c>
       <c r="E14" t="n">
-        <v>-28.26592592810192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B15" t="n">
-        <v>64.53095971424821</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.8733624454148473</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.277404303316666</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-46.26279272975823</v>
+        <v>-46.26279742410556</v>
       </c>
     </row>
   </sheetData>
